--- a/data/trans_dic/P17A_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P17A_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus</t>
+          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,89</t>
+          <t>6,44; 10,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 25,59</t>
+          <t>1,14; 6,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 14,58</t>
+          <t>9,88; 14,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 19,11</t>
+          <t>1,86; 4,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 12,02</t>
+          <t>8,62; 11,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 19,96</t>
+          <t>1,83; 4,4</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,91</t>
+          <t>4,39; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,58</t>
+          <t>0,77; 3,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,37</t>
+          <t>10,04; 15,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 18,01</t>
+          <t>1,1; 3,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 11,33</t>
+          <t>8,02; 11,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 13,25</t>
+          <t>1,11; 2,81</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 13,9</t>
+          <t>4,36; 13,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,85</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 17,53</t>
+          <t>8,31; 17,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 35,87</t>
+          <t>0,91; 8,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,12</t>
+          <t>6,93; 13,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 20,86</t>
+          <t>0,61; 4,96</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,31</t>
+          <t>6,21; 9,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,73</t>
+          <t>1,13; 3,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 13,98</t>
+          <t>10,83; 14,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,48</t>
+          <t>1,84; 3,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,09</t>
+          <t>8,82; 11,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 15,0</t>
+          <t>1,69; 3,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala 12 meses antes del coronavirus (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>138105</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40865</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>214467</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52503</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>352572</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>93368</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>105565; 177438</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18775; 101752</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>175948; 260694</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33681; 79273</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>295037; 405530</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63324; 152221</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>88439</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21972</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>175826</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28931</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>264265</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>50903</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60684; 136918</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10554; 45143</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>140887; 213589</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15254; 52020</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>223504; 327264</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30639; 77710</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33724</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51224</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14058</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>84948</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17234</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18267; 58586</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16340</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34242; 73265</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3767; 35461</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57649; 115827</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5103; 41364</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>260268</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66013</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>441517</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>95492</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>701785</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>161505</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>213630; 324975</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>38961; 117106</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>389457; 510859</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66548; 132394</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>621042; 788389</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>119615; 215145</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>